--- a/biology/Zoologie/Amphimoea_walkeri/Amphimoea_walkeri.xlsx
+++ b/biology/Zoologie/Amphimoea_walkeri/Amphimoea_walkeri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amphimoea walkeri est une espèce de lépidoptères (papillons) de la famille des Sphingidae, de la sous-famille des Sphinginae et de la tribu des Sphingini. Elle est la seule représentante du genre monotypique Amphimoea. 
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'envergure de l'imago varie de 147 à 164 mm. Elle est plus importante chez la femelle.
 			Face dorsale du mâle (coll.MHNT)
@@ -546,7 +560,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Répartition
 L'espèce est largement répandue du nord de l'Amérique centrale à la totalité de l'Amérique du Sud.
@@ -578,7 +594,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les adultes volent toute l'année. Cette espèce a le plus long proboscis (trompe) connu pour les insectes.  
 Les chenilles se nourrissent sur Anaxagorea crassipetala.
@@ -610,14 +628,51 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce actuellement appelée Amphimoea walkeri a été décrite par l'entomologiste français Jean-Baptiste Alphonse Dechauffour de Boisduval en 1875 sous le nom initial d'Amphonyx walkeri[1]. Sa localité type est le fleuve Oyapock en Guyane.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce actuellement appelée Amphimoea walkeri a été décrite par l'entomologiste français Jean-Baptiste Alphonse Dechauffour de Boisduval en 1875 sous le nom initial d'Amphonyx walkeri. Sa localité type est le fleuve Oyapock en Guyane.
 Elle a par la suite été placée dans le genre Amphimoea, décrit en 1903 par les entomologistes Lionel Walter Rothschild &amp; Heinrich Ernst Karl Jordan, et dont elle est l'unique espèce.
-Synonymie pour l'espèce
-Amphonyx walkeri Boisduval, [1875] — Protonyme
-Amphonyx staudingeri Druce, 1888[2]
-Cocytius magnificus Rothschild, 1894[3]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Amphimoea_walkeri</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amphimoea_walkeri</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie pour l'espèce</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Amphonyx walkeri Boisduval,  — Protonyme
+Amphonyx staudingeri Druce, 1888
+Cocytius magnificus Rothschild, 1894
 Cocytius misionum Köhler, 1924</t>
         </is>
       </c>
